--- a/DOWNLOADS/EDITAIS/U_926092_E_900222025/U_926092_E_900222025_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_926092_E_900222025/U_926092_E_900222025_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>Nº</t>
   </si>
@@ -85,25 +85,7 @@
     <t>Placa Controladora Vídeo Placa Controladora Vídeo Tamanho Memória: 24GB, Modelo: Acelerador De Gpu, Características Adicionais: Funcionamento Em Conjunto De Multiplas Gpu, Compatibilidade: Windows 10, Server 2016 E Red Hat Linux 7</t>
   </si>
   <si>
-    <t>Câmera fotográfica digital</t>
-  </si>
-  <si>
-    <t>Lente EF 35mm F/1.4L (compatível com a câmera do item 1)</t>
-  </si>
-  <si>
-    <t>Lente EF 70-200mm (compatível com a câmera do item 1)</t>
-  </si>
-  <si>
-    <t>Drone DJI Mavic 3E Enterprise com a Bateria da Série DJI Mavic 3 Enterprise (versão EU C1) e Hélices com Redução de Ruídos da Série DJI Mavic 3 Enterprise</t>
-  </si>
-  <si>
-    <t>Fechadura biométrica</t>
-  </si>
-  <si>
-    <t>Workstations 128GB RAM, Placa Gráfica dedicada, SSD de 1TB PCle NVMe</t>
-  </si>
-  <si>
-    <t>Placa de vídeo NVIDIA GeForce RTX 5090 OC 32GB GDDR7</t>
+    <t>ERRO IA: Expected 69 fields in line 7, saw 85. Error could possibly be due to quotes being ignored when a multi-char delimiter is used.</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -525,13 +507,13 @@
         <v>16759.09</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -542,7 +524,7 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -554,13 +536,13 @@
         <v>13095.22</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -571,7 +553,7 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -583,13 +565,13 @@
         <v>16270.19</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -600,7 +582,7 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -612,13 +594,13 @@
         <v>43546.56</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -629,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -641,13 +623,13 @@
         <v>9930.299999999999</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -658,7 +640,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -667,13 +649,13 @@
         <v>295840.72</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -684,7 +666,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -696,13 +678,13 @@
         <v>56598.98999999999</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
